--- a/BD/analisis EI + volumenes PID 2020 exploracion.xlsx
+++ b/BD/analisis EI + volumenes PID 2020 exploracion.xlsx
@@ -164,10 +164,10 @@
     <t>6-Exploracion</t>
   </si>
   <si>
-    <t>El niño</t>
+    <t>year</t>
   </si>
   <si>
-    <t>year</t>
+    <t>El_niño</t>
   </si>
 </sst>
 </file>
@@ -238,9 +238,9 @@
       <sheetName val="Analisis_exp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="A2" t="str">
@@ -503,10 +503,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -779,8 +779,8 @@
   <dimension ref="A1:I772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B401" sqref="B401"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -23801,7 +23801,7 @@
         <v>0</v>
       </c>
       <c r="C743" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D743" t="s">
         <v>41</v>
@@ -23832,7 +23832,7 @@
         <v>321.91780821917808</v>
       </c>
       <c r="C744" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D744" t="s">
         <v>41</v>
@@ -23863,7 +23863,7 @@
         <v>2205.4794520547944</v>
       </c>
       <c r="C745" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D745" t="s">
         <v>41</v>
@@ -23894,7 +23894,7 @@
         <v>5013.6986301369861</v>
       </c>
       <c r="C746" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D746" t="s">
         <v>41</v>
@@ -23925,7 +23925,7 @@
         <v>6363.0136986301368</v>
       </c>
       <c r="C747" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D747" t="s">
         <v>41</v>
@@ -23956,7 +23956,7 @@
         <v>6363.0136986301368</v>
       </c>
       <c r="C748" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D748" t="s">
         <v>41</v>
@@ -23987,7 +23987,7 @@
         <v>6376.7123287671229</v>
       </c>
       <c r="C749" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D749" t="s">
         <v>41</v>
@@ -24018,7 +24018,7 @@
         <v>6287.6712328767126</v>
       </c>
       <c r="C750" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D750" t="s">
         <v>41</v>
@@ -24049,7 +24049,7 @@
         <v>4657.5342465753429</v>
       </c>
       <c r="C751" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D751" t="s">
         <v>41</v>
@@ -24080,7 +24080,7 @@
         <v>3712.3287671232879</v>
       </c>
       <c r="C752" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D752" t="s">
         <v>41</v>
@@ -24111,7 +24111,7 @@
         <v>2958.9041095890411</v>
       </c>
       <c r="C753" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D753" t="s">
         <v>41</v>
@@ -24142,7 +24142,7 @@
         <v>2349.3150684931506</v>
       </c>
       <c r="C754" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D754" t="s">
         <v>41</v>
@@ -24173,7 +24173,7 @@
         <v>1869.8630136986301</v>
       </c>
       <c r="C755" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D755" t="s">
         <v>41</v>
@@ -24204,7 +24204,7 @@
         <v>1493.1506849315069</v>
       </c>
       <c r="C756" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D756" t="s">
         <v>41</v>
@@ -24235,7 +24235,7 @@
         <v>1191.7808219178082</v>
       </c>
       <c r="C757" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D757" t="s">
         <v>41</v>
@@ -24266,7 +24266,7 @@
         <v>945.20547945205476</v>
       </c>
       <c r="C758" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D758" t="s">
         <v>41</v>
@@ -24297,7 +24297,7 @@
         <v>746.57534246575347</v>
       </c>
       <c r="C759" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D759" t="s">
         <v>41</v>
@@ -24328,7 +24328,7 @@
         <v>575.34246575342468</v>
       </c>
       <c r="C760" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D760" t="s">
         <v>41</v>
@@ -24359,7 +24359,7 @@
         <v>410.95890410958901</v>
       </c>
       <c r="C761" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D761" t="s">
         <v>41</v>
@@ -24390,7 +24390,7 @@
         <v>273.97260273972603</v>
       </c>
       <c r="C762" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D762" t="s">
         <v>41</v>
@@ -24421,7 +24421,7 @@
         <v>136.98630136986301</v>
       </c>
       <c r="C763" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D763" t="s">
         <v>41</v>
@@ -24452,7 +24452,7 @@
         <v>47.945205479452056</v>
       </c>
       <c r="C764" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D764" t="s">
         <v>41</v>
@@ -24483,7 +24483,7 @@
         <v>0</v>
       </c>
       <c r="C765" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D765" t="s">
         <v>41</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="C766" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D766" t="s">
         <v>41</v>
@@ -24545,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="C767" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D767" t="s">
         <v>41</v>
@@ -24576,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="C768" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D768" t="s">
         <v>41</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="C769" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D769" t="s">
         <v>41</v>
@@ -24638,7 +24638,7 @@
         <v>0</v>
       </c>
       <c r="C770" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D770" t="s">
         <v>41</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="C771" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D771" t="s">
         <v>41</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="C772" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D772" t="s">
         <v>41</v>

--- a/BD/analisis EI + volumenes PID 2020 exploracion.xlsx
+++ b/BD/analisis EI + volumenes PID 2020 exploracion.xlsx
@@ -167,7 +167,7 @@
     <t>year</t>
   </si>
   <si>
-    <t>El_niño</t>
+    <t>El_nino</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
   <dimension ref="A1:I772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A752" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C757" sqref="C757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
